--- a/CDE_ID_detective_revamp/in/SAMPLE_sprint_2020-12-16.xlsx
+++ b/CDE_ID_detective_revamp/in/SAMPLE_sprint_2020-12-16.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_ID_detective_revamp\in\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCB6E2A-CE3F-426B-B088-603554F80B2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7908406-5685-44AC-AE7D-9FCC758EC265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="58785" yWindow="7845" windowWidth="17370" windowHeight="16710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-29925" yWindow="9585" windowWidth="28800" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sprint_2020-12-16" sheetId="1" r:id="rId1"/>
+    <sheet name="SheetA" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'sprint_2020-12-16'!$A$1:$R$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SheetA!$A$1:$R$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="40" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -528,7 +528,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Liezl Mae Fos" refreshedDate="45607.957532060187" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="45" xr:uid="{DD3154BE-884F-483C-A7FA-2F6377C68E4D}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:R46" sheet="sprint_2020-12-16"/>
+    <worksheetSource ref="A1:R46" sheet="SheetA"/>
   </cacheSource>
   <cacheFields count="18">
     <cacheField name="Variable / Field Name" numFmtId="0">
@@ -1758,7 +1758,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE29BDE7-6754-4C5A-9B64-D29B3C782EB9}" name="PivotTable2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Forms/Questionnaire/Tools">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AE29BDE7-6754-4C5A-9B64-D29B3C782EB9}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Forms/Questionnaire/Tools">
   <location ref="A3:A6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -2278,10 +2278,10 @@
   <dimension ref="A1:T46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B55" sqref="B55"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/CDE_ID_detective_revamp/in/SAMPLE_sprint_2020-12-16.xlsx
+++ b/CDE_ID_detective_revamp/in/SAMPLE_sprint_2020-12-16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lmaefos\Code Stuffs\CDE_detective\CDE_ID_detective_revamp\in\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7908406-5685-44AC-AE7D-9FCC758EC265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB70FFED-0466-4A75-9D3C-01F611A61A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29925" yWindow="9585" windowWidth="28800" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-36930" yWindow="7935" windowWidth="28800" windowHeight="15105" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SheetA" sheetId="1" r:id="rId1"/>
@@ -2281,7 +2281,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
